--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/WaveDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/WaveDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Desktop\공부\ExcelToTabText\ExcelToTabText\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD438839-C474-4F35-A575-C5009CD916BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C31202-4EC3-4CFF-853C-055BBB133C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20250" yWindow="17595" windowWidth="19590" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1590" windowWidth="22035" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableWave" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>60001&amp;60002&amp;60003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5&amp;10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -115,6 +111,10 @@
       </rPr>
       <t>설명</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3&amp;6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -423,8 +423,8 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -450,7 +450,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -521,13 +521,13 @@
         <v>20001</v>
       </c>
       <c r="H2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2">
         <v>30001</v>
       </c>
       <c r="J2" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2">
         <v>0.1</v>
@@ -571,13 +571,13 @@
         <v>20001</v>
       </c>
       <c r="H3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2">
         <v>30001</v>
       </c>
       <c r="J3" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2">
         <v>0.1</v>
@@ -621,13 +621,13 @@
         <v>20001</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2">
         <v>30001</v>
       </c>
       <c r="J4" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2">
         <v>0.1</v>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/WaveDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/WaveDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C31202-4EC3-4CFF-853C-055BBB133C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1148EE-60D5-4318-9AB6-D22D1B9C6A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1590" windowWidth="22035" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableWave" sheetId="1" r:id="rId1"/>
@@ -423,32 +423,32 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="35.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" customWidth="1"/>
-    <col min="16" max="16" width="32.28515625" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.109375" customWidth="1"/>
+    <col min="15" max="15" width="26.88671875" customWidth="1"/>
+    <col min="16" max="16" width="32.33203125" customWidth="1"/>
+    <col min="17" max="17" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -501,7 +501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -530,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>17</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="2">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>17</v>
